--- a/Project 2/Documents/FunctionPlotterDocuments/QuadraticOutput/quadraticOutputGraph.xlsx
+++ b/Project 2/Documents/FunctionPlotterDocuments/QuadraticOutput/quadraticOutputGraph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\FunctionPlotterDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\FunctionPlotterDocuments\QuadraticOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBAABB0-4178-46EF-BA8D-D03EF13D2D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC81238-7A0B-4CCC-8CB4-7E2EE8F1D8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{29DE70E3-7B72-47EC-AF03-727EF42FDAA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{35675213-874E-4803-823F-31D1436691A7}"/>
   </bookViews>
   <sheets>
     <sheet name="quadraticOutput" sheetId="1" r:id="rId1"/>
@@ -593,11 +593,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Qaudratic Function Output (a:2, b:3,</a:t>
+              <a:t>Quadratic Function</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> c:5)</a:t>
+              <a:t> (a:2, b:3, c:5)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -642,10 +642,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -667,10 +665,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>quadraticOutput!$A$1:$A$10</c:f>
+              <c:f>quadraticOutput!$A$1:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -700,16 +698,286 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>quadraticOutput!$B$1:$B$10</c:f>
+              <c:f>quadraticOutput!$B$1:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -739,6 +1007,276 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1774</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2419</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2854</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3164</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3325</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3490</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3659</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4190</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4564</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4757</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4954</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5155</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5360</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5569</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5782</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6445</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6674</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6907</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7144</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7385</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7630</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7879</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8389</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8915</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9184</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9457</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9734</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10015</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10589</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10882</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11179</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11480</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11785</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12094</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12407</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12724</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13045</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13370</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14032</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14369</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14710</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15404</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15757</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16114</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16475</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16840</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17209</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17582</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17959</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18340</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18725</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19114</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19507</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,7 +1284,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA9F-4C1A-8E0D-DA4D76393A28}"/>
+              <c16:uniqueId val="{00000000-8E4C-47A5-9A0D-BF30975B04EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -758,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1932715823"/>
-        <c:axId val="1932716783"/>
+        <c:axId val="688758783"/>
+        <c:axId val="688753983"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1932715823"/>
+        <c:axId val="688758783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +1341,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Y-Values</a:t>
+                  <a:t>X-Values</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -874,12 +1412,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1932716783"/>
+        <c:crossAx val="688753983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1932716783"/>
+        <c:axId val="688753983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +1458,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>X-Values</a:t>
+                  <a:t>Y-Values</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -991,7 +1529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1932715823"/>
+        <c:crossAx val="688758783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1601,22 +2139,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F383D34-F2CE-9E84-1116-30E995A743E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B97D87-F322-C926-98DD-CE2FB7BE5E1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,11 +2491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C6550B-F1E0-46A1-888C-6C3868563266}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F504CB4D-7AB1-434B-8607-1FFF1187A1FC}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2042,6 +2580,726 @@
         <v>194</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7630</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>9184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>9734</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>10589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>10882</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>11179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>11480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>11785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>12094</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>12407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>12724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>13045</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>13370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>13699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>14032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>14369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>14710</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>15055</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>15404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>15757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>16114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>16475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>16840</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>17209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>17582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>17959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>18340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>18725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>19114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>19507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>19904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
